--- a/files/4-курс-бакалавриат-ОФО-43.xlsx
+++ b/files/4-курс-бакалавриат-ОФО-43.xlsx
@@ -15,11 +15,67 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ИУПСиБК 4 курс " sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="Z_25C9A786_0EB2_4F98_A0E6_C09178901317_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 4 курс'!$B$1:$O$56</definedName>
+    <definedName name="Z_374EE170_1A18_4439_8E8B_EBC4FF1F63C8_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 4 курс'!$B$1:$O$56</definedName>
+    <definedName name="Z_48AFD5C3_144F_449B_ACA8_1DCB1AD66E04_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 4 курс'!$B$1:$O$56</definedName>
+    <definedName name="Z_7842C2DE_8AFF_40F7_95F7_724585596401_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 4 курс'!$B$1:$O$56</definedName>
+    <definedName name="Z_7E307FF6_31F1_48D8_8A00_4F95EEA114BB_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 4 курс'!$B$1:$O$56</definedName>
+    <definedName name="Z_BF79E818_C2E8_4128_B0DE_222862985ACF_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 4 курс'!$B$1:$O$56</definedName>
+    <definedName name="Z_E4A902BA_F98F_4487_9EAA_93B395EFFA46_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 4 курс'!$B$1:$O$56</definedName>
+    <definedName name="Z_EFD23CED_B146_44E1_A784_C5318835F8A0_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 4 курс'!$B$1:$O$56</definedName>
+    <definedName name="Z_F2A890F5_86FC_4E01_8230_C6F7420E029C_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 4 курс'!$B$1:$O$60</definedName>
+    <definedName name="Z_F3144C68_75FD_446E_BE69_FE917ADC2736_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 4 курс'!$B$1:$O$56</definedName>
+    <definedName name="Z_FC412F15_D28E_4D34_AF5D_312291D2709E_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 4 курс'!$B$1:$O$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ИГУиП 4 курс'!$B$1:$O$60</definedName>
+    <definedName name="Z_25C9A786_0EB2_4F98_A0E6_C09178901317_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 4 курс'!$B$1:$P$69</definedName>
+    <definedName name="Z_374EE170_1A18_4439_8E8B_EBC4FF1F63C8_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 4 курс'!$B$1:$P$69</definedName>
+    <definedName name="Z_48AFD5C3_144F_449B_ACA8_1DCB1AD66E04_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 4 курс'!$B$1:$P$69</definedName>
+    <definedName name="Z_7842C2DE_8AFF_40F7_95F7_724585596401_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 4 курс'!$B$1:$P$69</definedName>
+    <definedName name="Z_7E307FF6_31F1_48D8_8A00_4F95EEA114BB_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 4 курс'!$B$1:$P$69</definedName>
+    <definedName name="Z_BF79E818_C2E8_4128_B0DE_222862985ACF_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 4 курс'!$B$1:$P$69</definedName>
+    <definedName name="Z_E4A902BA_F98F_4487_9EAA_93B395EFFA46_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 4 курс'!$B$1:$P$69</definedName>
+    <definedName name="Z_EFD23CED_B146_44E1_A784_C5318835F8A0_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 4 курс'!$B$1:$P$69</definedName>
+    <definedName name="Z_F2A890F5_86FC_4E01_8230_C6F7420E029C_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 4 курс'!$B$1:$P$60</definedName>
+    <definedName name="Z_F3144C68_75FD_446E_BE69_FE917ADC2736_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 4 курс'!$B$1:$P$65</definedName>
+    <definedName name="Z_FC412F15_D28E_4D34_AF5D_312291D2709E_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 4 курс'!$B$1:$P$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'ИМ 4 курс'!$B$1:$P$60</definedName>
+    <definedName name="Z_25C9A786_0EB2_4F98_A0E6_C09178901317_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 4 курс '!$A$1:$T$83</definedName>
+    <definedName name="Z_374EE170_1A18_4439_8E8B_EBC4FF1F63C8_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 4 курс '!$A$1:$T$83</definedName>
+    <definedName name="Z_48AFD5C3_144F_449B_ACA8_1DCB1AD66E04_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 4 курс '!$A$1:$T$83</definedName>
+    <definedName name="Z_7842C2DE_8AFF_40F7_95F7_724585596401_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 4 курс '!$A$1:$T$83</definedName>
+    <definedName name="Z_7E307FF6_31F1_48D8_8A00_4F95EEA114BB_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 4 курс '!$A$1:$T$83</definedName>
+    <definedName name="Z_BF79E818_C2E8_4128_B0DE_222862985ACF_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 4 курс '!$A$1:$T$83</definedName>
+    <definedName name="Z_E4A902BA_F98F_4487_9EAA_93B395EFFA46_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 4 курс '!$A$1:$T$83</definedName>
+    <definedName name="Z_EFD23CED_B146_44E1_A784_C5318835F8A0_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 4 курс '!$A$1:$T$83</definedName>
+    <definedName name="Z_F2A890F5_86FC_4E01_8230_C6F7420E029C_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 4 курс '!$B$1:$T$60</definedName>
+    <definedName name="Z_F3144C68_75FD_446E_BE69_FE917ADC2736_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 4 курс '!$A$1:$T$83</definedName>
+    <definedName name="Z_FC412F15_D28E_4D34_AF5D_312291D2709E_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 4 курс '!$A$1:$T$83</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'ИИС 4 курс '!$B$1:$T$60</definedName>
+    <definedName name="Z_25C9A786_0EB2_4F98_A0E6_C09178901317_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 4 курс'!$A$1:$R$58</definedName>
+    <definedName name="Z_374EE170_1A18_4439_8E8B_EBC4FF1F63C8_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 4 курс'!$A$1:$R$58</definedName>
+    <definedName name="Z_48AFD5C3_144F_449B_ACA8_1DCB1AD66E04_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 4 курс'!$A$1:$R$56</definedName>
+    <definedName name="Z_7842C2DE_8AFF_40F7_95F7_724585596401_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 4 курс'!$A$1:$R$58</definedName>
+    <definedName name="Z_7E307FF6_31F1_48D8_8A00_4F95EEA114BB_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 4 курс'!$A$1:$R$58</definedName>
+    <definedName name="Z_BF79E818_C2E8_4128_B0DE_222862985ACF_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 4 курс'!$A$1:$R$56</definedName>
+    <definedName name="Z_E4A902BA_F98F_4487_9EAA_93B395EFFA46_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 4 курс'!$A$1:$R$58</definedName>
+    <definedName name="Z_EFD23CED_B146_44E1_A784_C5318835F8A0_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 4 курс'!$A$1:$R$58</definedName>
+    <definedName name="Z_F2A890F5_86FC_4E01_8230_C6F7420E029C_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 4 курс'!$B$1:$Q$61</definedName>
+    <definedName name="Z_F3144C68_75FD_446E_BE69_FE917ADC2736_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 4 курс'!$A$1:$R$58</definedName>
+    <definedName name="Z_FC412F15_D28E_4D34_AF5D_312291D2709E_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 4 курс'!$A$1:$R$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'ИЭиФ 4 курс'!$B$1:$Q$61</definedName>
+    <definedName name="Z_F2A890F5_86FC_4E01_8230_C6F7420E029C_.wvu.PrintArea" localSheetId="4" hidden="1">'ИОМ 4 курс'!$B$1:$P$60</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'ИОМ 4 курс'!$B$1:$P$60</definedName>
+    <definedName name="Z_25C9A786_0EB2_4F98_A0E6_C09178901317_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_374EE170_1A18_4439_8E8B_EBC4FF1F63C8_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_48AFD5C3_144F_449B_ACA8_1DCB1AD66E04_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_7842C2DE_8AFF_40F7_95F7_724585596401_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_7E307FF6_31F1_48D8_8A00_4F95EEA114BB_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_BF79E818_C2E8_4128_B0DE_222862985ACF_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_E4A902BA_F98F_4487_9EAA_93B395EFFA46_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_EFD23CED_B146_44E1_A784_C5318835F8A0_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_F2A890F5_86FC_4E01_8230_C6F7420E029C_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_F3144C68_75FD_446E_BE69_FE917ADC2736_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_FC412F15_D28E_4D34_AF5D_312291D2709E_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'3 курс'!$A$1:$Q$68</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
